--- a/biology/Écologie/Liste_des_écorégions_de_Côte_d'Ivoire/Liste_des_écorégions_de_Côte_d'Ivoire.xlsx
+++ b/biology/Écologie/Liste_des_écorégions_de_Côte_d'Ivoire/Liste_des_écorégions_de_Côte_d'Ivoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste des écorégions de Côte-d'Ivoire a été établie par le Fonds mondial pour la nature (WWF) sur la base des biomes qu'il a appelé écorégions. Ces biomes ne décrivent pas l'environnement ivoirien dans son ensemble car celui-ci est largement fragmenté, notamment par les activités agricoles, mais ces écorégions reflètent l'environnement des zones laissées à l'état sauvage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,12 @@
           <t>Écorégions terrestres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Par grand type d'habitat :
-Forêts de feuillus humides tropicales et subtropicales
-Forêts guinéennes orientales
-Forêts d'altitude guinéennes
-Forêts guinéennes occidentales de basses terres
-Prairies, savanes et brousses tropicales et subtropicales
-Mosaïque de forêt-savane guinéenne
-Savane ouest soudanienne
-Mangrove
-Mangroves guinéennes</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par grand type d'habitat :
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,48 +553,232 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Écorégions terrestres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Forêts de feuillus humides tropicales et subtropicales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forêts guinéennes orientales
+Forêts d'altitude guinéennes
+Forêts guinéennes occidentales de basses terres</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prairies, savanes et brousses tropicales et subtropicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mosaïque de forêt-savane guinéenne
+Savane ouest soudanienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mangrove</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mangroves guinéennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écorégions d'eau douce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Par biorégion :
-Nilo-Soudan
-Ashanti (Ghana)
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par biorégion :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écorégions d'eau douce</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nilo-Soudan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ashanti (Ghana)
 Eburneo
 Haut-Niger
 Mont Nimba
-Volta
-Haute Guinée
-Sud de la Haute-Guinée</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Volta</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écorégions d'eau douce</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Haute Guinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sud de la Haute-Guinée</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_de_Côte_d'Ivoire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_de_C%C3%B4te_d%27Ivoire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écorégion marine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Golfe de Guinée</t>
         </is>
